--- a/SAIL_22_sandiego_fy17q4.xlsx
+++ b/SAIL_22_sandiego_fy17q4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Documents\UCSD\The Guardian\sail adjusted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB95575-51CA-4DCA-A7EB-5DDF489ED45A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9DF1E8-B6C4-428D-99C2-330A7F26931F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7185" xr2:uid="{7E035724-0571-44BE-956D-F74BA89F3D71}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Access</t>
   </si>
@@ -44,18 +44,12 @@
     <t>wct %</t>
   </si>
   <si>
-    <t>↑</t>
-  </si>
-  <si>
     <t>47.886</t>
   </si>
   <si>
     <t>61.415</t>
   </si>
   <si>
-    <t>41.989 - 51.990 - 61.415</t>
-  </si>
-  <si>
     <t xml:space="preserve">    b. Specialty Care timely appointment, care and information</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>58.399</t>
   </si>
   <si>
-    <t>42.063 - 49.820 - 58.399</t>
-  </si>
-  <si>
     <t xml:space="preserve">    c. Days Waited for Urgent Appointment (PCMH)</t>
   </si>
   <si>
@@ -77,9 +68,6 @@
     <t>50.307</t>
   </si>
   <si>
-    <t>27.376 - 40.136 - 50.307</t>
-  </si>
-  <si>
     <t xml:space="preserve">  2. Wait times</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
     <t>93.696</t>
   </si>
   <si>
-    <t>58.113 - 81.311 - 93.696</t>
-  </si>
-  <si>
     <t xml:space="preserve">    b. Specialty care new patient wait time &lt;=30 days from create date</t>
   </si>
   <si>
@@ -107,9 +92,6 @@
     <t>86.111</t>
   </si>
   <si>
-    <t>68.774 - 76.819 - 86.111</t>
-  </si>
-  <si>
     <t xml:space="preserve">    c. Mental health care new patient wait time &lt;=30 days from create date</t>
   </si>
   <si>
@@ -119,9 +101,6 @@
     <t>97.222</t>
   </si>
   <si>
-    <t>85.503 - 93.539 - 97.222</t>
-  </si>
-  <si>
     <t xml:space="preserve">  3. Call center responsiveness</t>
   </si>
   <si>
@@ -131,18 +110,12 @@
     <t>seconds</t>
   </si>
   <si>
-    <t>↓</t>
-  </si>
-  <si>
     <t>47.966</t>
   </si>
   <si>
     <t>20.719</t>
   </si>
   <si>
-    <t>20.719 - 53.566 - 123.527</t>
-  </si>
-  <si>
     <t xml:space="preserve">    b. Call center abandonment rate</t>
   </si>
   <si>
@@ -152,9 +125,6 @@
     <t>2.604</t>
   </si>
   <si>
-    <t>2.604 - 6.410 - 13.755</t>
-  </si>
-  <si>
     <t>Mental Health</t>
   </si>
   <si>
@@ -167,9 +137,6 @@
     <t>1.203</t>
   </si>
   <si>
-    <t>-1.309 - -0.112 - 1.203</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1. Population coverage</t>
   </si>
   <si>
@@ -179,9 +146,6 @@
     <t>1.196</t>
   </si>
   <si>
-    <t>-1.173 - -0.130 - 1.196</t>
-  </si>
-  <si>
     <t xml:space="preserve">  2. Continuity of care</t>
   </si>
   <si>
@@ -191,9 +155,6 @@
     <t>1.115</t>
   </si>
   <si>
-    <t>-1.410 - 0.038 - 1.115</t>
-  </si>
-  <si>
     <t xml:space="preserve">  3. Experience of care</t>
   </si>
   <si>
@@ -203,25 +164,25 @@
     <t>1.151</t>
   </si>
   <si>
-    <t>-1.397 - -0.006 - 1.151</t>
-  </si>
-  <si>
     <t>Measure</t>
   </si>
   <si>
     <t>Measure Unit</t>
   </si>
   <si>
-    <t>Preferred</t>
-  </si>
-  <si>
     <t>San Diego</t>
   </si>
   <si>
     <t>Benchmark</t>
   </si>
   <si>
-    <t>10th-50th-90th ptile</t>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>50th</t>
+  </si>
+  <si>
+    <t>90th ptile</t>
   </si>
 </sst>
 </file>
@@ -573,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DDEB42-134A-4E8E-864B-67BCD777D500}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -584,37 +545,40 @@
     <col min="1" max="1" width="61.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -627,241 +591,277 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>41.988999999999997</v>
+      </c>
+      <c r="F4">
+        <v>51.99</v>
+      </c>
+      <c r="G4">
+        <v>61.414999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>42.063000000000002</v>
+      </c>
+      <c r="F5">
+        <v>49.82</v>
+      </c>
+      <c r="G5">
+        <v>58.399000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>27.376000000000001</v>
+      </c>
+      <c r="F6">
+        <v>40.136000000000003</v>
+      </c>
+      <c r="G6">
+        <v>50.307000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
+      <c r="E8">
+        <v>58.113</v>
+      </c>
+      <c r="F8">
+        <v>81.311000000000007</v>
+      </c>
+      <c r="G8">
+        <v>93.695999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9">
+        <v>68.774000000000001</v>
+      </c>
+      <c r="F9">
+        <v>76.819000000000003</v>
+      </c>
+      <c r="G9">
+        <v>86.111000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E10">
+        <v>85.503</v>
+      </c>
+      <c r="F10">
+        <v>93.539000000000001</v>
+      </c>
+      <c r="G10">
+        <v>97.221999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12">
+        <v>20.719000000000001</v>
+      </c>
+      <c r="F12">
+        <v>53.566000000000003</v>
+      </c>
+      <c r="G12">
+        <v>123.527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
+      <c r="E13">
+        <v>2.6040000000000001</v>
+      </c>
+      <c r="F13">
+        <v>6.41</v>
+      </c>
+      <c r="G13">
+        <v>13.755000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14">
+        <v>-1.3089999999999999</v>
+      </c>
+      <c r="F14">
+        <v>-0.112</v>
+      </c>
+      <c r="G14">
+        <v>1.2030000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="s">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E15">
+        <v>-1.173</v>
+      </c>
+      <c r="F15">
+        <v>-0.13</v>
+      </c>
+      <c r="G15">
+        <v>1.196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
+      <c r="E16">
+        <v>-1.41</v>
+      </c>
+      <c r="F16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G16">
+        <v>1.115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
+      <c r="E17">
+        <v>-1.397</v>
+      </c>
+      <c r="F17">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="G17">
+        <v>1.151</v>
       </c>
     </row>
   </sheetData>
